--- a/说明文档/数据库表结构设计文档.xlsx
+++ b/说明文档/数据库表结构设计文档.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\上海科致OA管理\说明文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\上海科致OA管理\kezhiOA\说明文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,11 +17,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="96">
   <si>
     <t>表名</t>
   </si>
@@ -364,12 +365,53 @@
     <t>支付时长</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他工作地点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当F_WorkAddress为"其他"时，辞职不为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目实施、管理工作、售前工作等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_OtherAddress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F_WorkC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ategory</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,6 +443,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -745,7 +795,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -840,6 +890,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1158,10 +1217,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E54"/>
+  <dimension ref="B2:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1170,29 +1229,30 @@
     <col min="3" max="3" width="25.25" customWidth="1"/>
     <col min="4" max="4" width="14.25" customWidth="1"/>
     <col min="5" max="5" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D2" s="35"/>
+      <c r="E2" s="36"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1206,7 +1266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -1218,7 +1278,7 @@
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
@@ -1230,7 +1290,7 @@
       </c>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
@@ -1242,7 +1302,7 @@
       </c>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B8" s="10" t="s">
         <v>17</v>
       </c>
@@ -1254,7 +1314,7 @@
       </c>
       <c r="E8" s="13"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B9" s="10" t="s">
         <v>19</v>
       </c>
@@ -1266,522 +1326,556 @@
       </c>
       <c r="E9" s="13"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B10" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="34">
+        <v>43706</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B11" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C11" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="13"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="10" t="s">
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B12" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="34">
+        <v>43706</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C13" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B12" s="10" t="s">
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C14" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="13"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="10" t="s">
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D15" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="10" t="s">
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D16" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B15" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="30"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B16" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="30"/>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="23" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>73</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="31"/>
+        <v>80</v>
+      </c>
+      <c r="E17" s="30"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="23" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="E18" s="25"/>
+      <c r="D18" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="30"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="23" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="25"/>
+      <c r="D19" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="31"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B20" s="23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E20" s="25"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B21" s="23" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>67</v>
       </c>
       <c r="E21" s="25"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B22" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="25"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B23" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="25"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B24" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C24" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D24" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="29" t="s">
+      <c r="E24" s="29" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B23" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="13"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B24" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="13"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B25" s="10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E25" s="13"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B26" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E26" s="13"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B27" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E27" s="13"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B28" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E28" s="13"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B29" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E29" s="13"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B30" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B31" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="13"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B32" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="13"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B31" s="14" t="s">
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B33" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C33" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D33" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E31" s="17"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B34" s="1" t="s">
+      <c r="E33" s="17"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C36" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="33"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B35" s="2" t="s">
+      <c r="D36" s="35"/>
+      <c r="E36" s="36"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C37" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="35"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B36" s="3" t="s">
+      <c r="D37" s="37"/>
+      <c r="E37" s="38"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D38" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E38" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B37" s="7" t="s">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B39" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C39" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D39" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B38" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" s="13"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B39" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E39" s="13"/>
+      <c r="E39" s="9"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B40" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>59</v>
+        <v>53</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="E40" s="13"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B41" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>9</v>
+        <v>55</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E41" s="13"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B42" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E42" s="13"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B43" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E43" s="13"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B44" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="E44" s="13"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B45" s="10" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E45" s="13"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B46" s="10" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E46" s="13"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B47" s="10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E47" s="13"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B48" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E48" s="13"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B49" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E49" s="13"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B50" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E50" s="13"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E51" s="13"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B52" s="10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" s="13"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B53" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="13"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B54" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E52" s="13"/>
-    </row>
-    <row r="53" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="14" t="s">
+      <c r="E54" s="13"/>
+    </row>
+    <row r="55" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C55" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="D55" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E53" s="17"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
+      <c r="E55" s="17"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/说明文档/数据库表结构设计文档.xlsx
+++ b/说明文档/数据库表结构设计文档.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="168">
   <si>
     <t>表名</t>
   </si>
@@ -365,10 +365,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>当F_WorkAddress为"其他"时，辞职不为空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>工作类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -593,10 +589,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>F_ProjectClient</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -618,6 +610,125 @@
   </si>
   <si>
     <t>varchar(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_OA_LodgingHouse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工宿舍信息表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宿舍编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宿舍名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表：2020-05-09</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宿舍负责人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>省</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_DetailsAddress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(500)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当F_WorkAddress为"其他"时，不为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：有效 0：无效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_HouseProvince</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_HouseCity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_HouseName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_HouseCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_HouseManage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_ProjectId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F_LodgingHouse</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宿舍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001：家  0002：宾馆   其他对应宿舍ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效，暂停开发</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -625,7 +736,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -660,6 +771,25 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -848,7 +978,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -902,6 +1032,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1225,10 +1370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F94"/>
+  <dimension ref="B1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1253,25 +1398,25 @@
       <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="22" t="s">
-        <v>122</v>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="27" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="18"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="16" t="s">
@@ -1284,9 +1429,9 @@
         <v>6</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="F4" s="19"/>
+        <v>130</v>
+      </c>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B5" s="11" t="s">
@@ -1355,16 +1500,16 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="F10" s="6">
         <v>43706</v>
@@ -1385,7 +1530,7 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>87</v>
@@ -1394,7 +1539,7 @@
         <v>88</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="F12" s="6">
         <v>43706</v>
@@ -1418,7 +1563,7 @@
         <v>24</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>25</v>
@@ -1457,13 +1602,13 @@
         <v>73</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E17" s="10"/>
-      <c r="F17" s="23">
+      <c r="F17" s="28">
         <v>43626</v>
       </c>
     </row>
@@ -1472,13 +1617,13 @@
         <v>79</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>80</v>
       </c>
       <c r="E18" s="10"/>
-      <c r="F18" s="23"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
@@ -1491,7 +1636,7 @@
         <v>86</v>
       </c>
       <c r="E19" s="10"/>
-      <c r="F19" s="23"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
@@ -1504,7 +1649,7 @@
         <v>64</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="23"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
@@ -1517,7 +1662,7 @@
         <v>65</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="23"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
@@ -1530,7 +1675,7 @@
         <v>66</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="23"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
@@ -1543,7 +1688,7 @@
         <v>67</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="23"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" s="1" t="s">
@@ -1558,586 +1703,598 @@
       <c r="E24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="F25" s="6">
         <v>43715</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="B26" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" s="6">
+        <v>43961</v>
+      </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B34" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="36" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B37" s="13" t="s">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B35" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="37" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B38" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C38" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B38" s="15" t="s">
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B39" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C39" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="18"/>
-    </row>
-    <row r="39" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="16" t="s">
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="23"/>
+    </row>
+    <row r="40" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C40" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D40" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="F39" s="19"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B40" s="11" t="s">
+      <c r="E40" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" s="24"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B41" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C41" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D41" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B41" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B42" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B43" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="B43" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B44" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="6">
+      <c r="D44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="6">
         <v>43721</v>
       </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B44" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B45" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B46" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>139</v>
+        <v>8</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B47" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B48" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="6">
-        <v>43721</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="E50" s="2"/>
       <c r="F50" s="6">
         <v>43721</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B51" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
+      <c r="B51" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F51" s="6">
+        <v>43721</v>
+      </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B52" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B53" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B54" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B55" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B56" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B57" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B58" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B59" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-    </row>
-    <row r="62" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B63" s="13" t="s">
+      <c r="B60" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+    </row>
+    <row r="63" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B64" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C63" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="8" t="s">
+      <c r="C64" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D64" s="14"/>
+      <c r="E64" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B65" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="23" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B64" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="16" t="s">
+    <row r="66" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C66" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D65" s="17" t="s">
+      <c r="D66" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E65" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="F65" s="19"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B66" s="11" t="s">
+      <c r="E66" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F66" s="24"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B67" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C67" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D66" s="11" t="s">
+      <c r="D67" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E66" s="11"/>
-      <c r="F66" s="11"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B67" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B68" s="5" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>72</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>103</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B69" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F69" s="4"/>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B70" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C70" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="E70" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E70" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="F70" s="4"/>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B72" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="D72" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
     </row>
@@ -2233,131 +2390,425 @@
       <c r="F85" s="4"/>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B86" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>32</v>
-      </c>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B87" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B88" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B89" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B90" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B91" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B92" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B93" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B94" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
     </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B95" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+    </row>
+    <row r="98" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B99" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B100" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="101" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F101" s="24"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B102" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B103" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B104" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E104" s="5"/>
+      <c r="F104" s="4"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B105" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E105" s="5"/>
+      <c r="F105" s="4"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B106" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B107" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B108" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B109" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B113" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B114" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F114" s="4"/>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B115" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B116" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B117" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B118" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B119" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B120" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B121" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="F64:F65"/>
+  <mergeCells count="9">
+    <mergeCell ref="F100:F101"/>
+    <mergeCell ref="F65:F66"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C37:E37"/>
     <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
     <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="F38:F40"/>
     <mergeCell ref="F17:F24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
